--- a/wetezos/evidence.xlsx
+++ b/wetezos/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17720" windowHeight="7560"/>
+    <workbookView windowHeight="20300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
   <si>
     <t>TeamName</t>
   </si>
@@ -91,34 +91,58 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>DCEDDE944954FEFC71707B2A4F9F5ED7AA6AD89646F0A9244F51D50B42B6D2D9</t>
+  </si>
+  <si>
+    <t>wetezNFTCA</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>926F16A57B38BEB2B37BB1C158E020AED1B1D2DABC1DE07A0DB1C89806534E17</t>
+  </si>
+  <si>
+    <t>wetezNFTCA001</t>
+  </si>
+  <si>
+    <t>7814771C9371592C107513658711325E2F700A53C88E25F01680EDF123202915</t>
+  </si>
+  <si>
+    <t>wetezNFTCA004</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
+    <t>B5E1FC798E0AF2BD74E9E2B3DF4F70CA7B470E7D6B00ED116E74395E8A4D189E</t>
+  </si>
+  <si>
+    <t>juno14ledwyf6e6p9jv422fp7zdmtlpmchspdmpdutcdgnncj088ja9hq27a7mc</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>0E09CBDAC88EDD380E31D55A6890B264E511C53861794B25092BE85565E16FCD</t>
+  </si>
+  <si>
+    <t>ibc/8B720F05095D222C23304BCA847AFF675B14D40C5B26AA4F4DE73446BFB564A5</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>33C715BD8E22148E019267EB1302D719BC639A6ADC430D1D40F769115D548EDF</t>
+  </si>
+  <si>
+    <t>0B98911EF542533BCB53A7B4A306D8CF8F662E1313C47C0A85340A1DCB60A76B</t>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
   </si>
   <si>
     <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
   </si>
   <si>
     <t>tx hash on that chain</t>
@@ -141,12 +165,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,51 +186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,23 +200,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -246,52 +218,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,6 +237,97 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -333,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,21 +559,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -569,8 +571,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,6 +592,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -601,6 +618,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,171 +656,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,14 +1169,14 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.5769230769231" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.8461538461538" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.6923076923077" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.1538461538462" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.5384615384615" style="4" customWidth="1"/>
@@ -1250,10 +1267,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1289,10 +1306,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1328,10 +1345,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1367,10 +1384,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1401,25 +1418,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1450,25 +1467,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1499,25 +1516,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1548,25 +1565,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1597,25 +1614,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1646,25 +1663,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1680,13 +1697,14 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="17.8653846153846" style="1" customWidth="1"/>
+    <col min="1" max="1" width="96.5384615384615" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.8653846153846" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
@@ -1733,25 +1751,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1782,25 +1800,25 @@
         <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1832,12 +1850,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1869,12 +1887,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1906,12 +1924,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1943,12 +1961,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1962,16 +1980,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="2" width="17.8653846153846" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0096153846154" style="1" customWidth="1"/>
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="96.9230769230769" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.2307692307692" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3846153846154" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:3">
@@ -1987,13 +2006,24 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2010,13 +2040,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.8653846153846" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0096153846154" style="1" customWidth="1"/>
+    <col min="1" max="1" width="96.6153846153846" style="1" customWidth="1"/>
+    <col min="2" max="2" width="81.4615384615385" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3846153846154" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.4326923076923" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2031,111 +2062,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8653846153846" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4326923076923" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="2" width="17.8653846153846" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4326923076923" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
@@ -2149,9 +2076,115 @@
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="96.6153846153846" style="1" customWidth="1"/>
+    <col min="2" max="2" width="98.8461538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3846153846154" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4326923076923" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="95.3846153846154" style="1" customWidth="1"/>
+    <col min="2" max="2" width="81.4615384615385" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3846153846154" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.4326923076923" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2164,54 +2197,93 @@
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="95.4615384615385" style="1" customWidth="1"/>
+    <col min="2" max="2" width="98.8461538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3846153846154" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.4326923076923" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="17.8653846153846" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.2884615384615" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.4326923076923" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:4">
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -2238,49 +2310,10 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/wetezos/evidence.xlsx
+++ b/wetezos/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="20300" activeTab="1"/>
+    <workbookView windowWidth="28840" windowHeight="14900" firstSheet="14" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="88">
   <si>
     <t>TeamName</t>
   </si>
@@ -139,25 +140,169 @@
     <t>0B98911EF542533BCB53A7B4A306D8CF8F662E1313C47C0A85340A1DCB60A76B</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>ibc/63856B099DA4C6A52F714B7CDFA4570CD8AE5F94C8B7262DB536BD150F7CFAAA</t>
+  </si>
+  <si>
+    <t>wetezNFTCAS2n07</t>
+  </si>
+  <si>
+    <t>ibc/BDA5732293A06CE606FFE37738D26057DBD457907C8B8FFB93806C6CAA6EB22D</t>
+  </si>
+  <si>
+    <t>wetezNFTCAS2n08</t>
+  </si>
+  <si>
+    <t>ibc/E930D37BC779B06254CFBB99541FB63B83727ECFE51252C2895B707278199806</t>
+  </si>
+  <si>
+    <t>wetezNFTCAS2n09</t>
+  </si>
+  <si>
+    <t>ibc/632757A0D9EC5F801B9A5A1CB33983B0C4FE817DB30D658F327B254F96555AA7</t>
+  </si>
+  <si>
+    <t>wetezNFTCAS2n10</t>
+  </si>
+  <si>
+    <t>ibc/1CDCCFDCE55454BC164A17803513FE71B52DBC7AA1AC6EC3DECFD2FF3CAB940D</t>
+  </si>
+  <si>
+    <t>wetezNFTCAS2n11</t>
+  </si>
+  <si>
+    <t>ibc/FF07264BF264FC6E68C365D950CD6DBDB1A8A3275ED0B7E036DB2A96611E55C9</t>
+  </si>
+  <si>
+    <t>wetezNFTCAS2n12</t>
+  </si>
+  <si>
+    <t>373C5FE17D142A81E05007C95AA286C418594C3D1404DEFF344B26A9CA4A5756</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>ADD688815D0B85933F32670954B93926D81990EA187C553CAF24CFFDF7970A23</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>18F583EBC4EBF1F0D82C5E4C8A065624FE8E433C1C4ECB864D6B4D0C59DE3EE3</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>8F946DC11D1104C6B0C3C9C2A504E7C8EBC13466B9157A79DA31335F86DF8462</t>
+  </si>
+  <si>
+    <t>8D2E0DF589F84A112671A42F38D83DAA5170504F376859384C537678E47B0EEF</t>
+  </si>
+  <si>
+    <t>8E4BB363F041CE9AD5D6501117F53F2CF03C98547D2699A919796832EFF1867D</t>
+  </si>
+  <si>
+    <t>780EBF8C165EFBAABE4E93477525A9944CE24A5B9BA7FBC8897FAB4BA2F0C438</t>
+  </si>
+  <si>
+    <t>1B866E686BF01A9F6001C888097E16BADF87E393786F65C6FA80327373F78206</t>
+  </si>
+  <si>
+    <t>9A4B48425D1739A860E4C38B65E5A14E590B826F55D41C2BFE17B5851AEDBC4F</t>
+  </si>
+  <si>
+    <t>94B45E8F19778416D277224F3914987021459F30DEAF461430E82ECE0350E5F4</t>
+  </si>
+  <si>
+    <t>82199F282E69BB718F669B5F74CEB7020BEAD7AE05C40034C16270FFF2E00156</t>
+  </si>
+  <si>
+    <t>156D437E70EF2CD4EE08809FA2B40B36C1E460F2ED66FAF9030EC47027720A76</t>
+  </si>
+  <si>
+    <t>7A8DF12266EE9D300829D14F102F40E6C28828835C331FDA7A372A06E23848BB</t>
+  </si>
+  <si>
+    <t>03CA9736A5583611A35133579C8B6592D9C117BE2D04D3F1077107A4B964BD8B</t>
+  </si>
+  <si>
+    <t>07CADB98FFF735BBB3EFD385ACBEFF9BA5D242AEA00A359CA77FAA3EACA964F8</t>
+  </si>
+  <si>
+    <t>EE04D5456221CFF54DE6E9D17A821C4E37DBD1E5F01E9069CC0562DF9BBE8847</t>
+  </si>
+  <si>
+    <t>7DEF453DAD7341E35FCA6591C1EAE36F14B58C846EADE1AA6B57418B8E88282D</t>
+  </si>
+  <si>
+    <t>B5B0CF3784D64A917D77807467C698B7CCD3D22E4ABDC99DF4C6DC3491BF3D1A</t>
+  </si>
+  <si>
+    <t>F2ED9C3C5758004A70817C8DBE3EFD62EBA0B74A87BE824B8E2C8422CFCAB399</t>
+  </si>
+  <si>
+    <t>70E41E72C64A3C0FE89FBEAACE4CD621FDBD3237504AE9DC1F8070DB4AA0CDA4</t>
+  </si>
+  <si>
+    <t>6C6971D67A774BF0199F55B4BC1CB18C0C695E47CBAE96A9EB322E03B94D4DB2</t>
+  </si>
+  <si>
+    <t>71F958A5F072BDFB5525629EF2BEFF737C8B505C461D93E9F6BF439748255BD8</t>
+  </si>
+  <si>
+    <t>55825837D43A06431D63A06252AF18DE417754967FD23D064AED1FF46AD0E845</t>
+  </si>
+  <si>
+    <t>4B13425068FC448736F10BBCA85D17A9A89B4EC94EE3A94958F1E7EA28E8DB8E</t>
+  </si>
+  <si>
+    <t>07513E1EF4CAB144850A62B09E419E4ADB1322A34EBB7661D7A46CE13420148E</t>
+  </si>
+  <si>
+    <t>5A170020A488585B18B0AE008972EEF9ABC72234D12471A82C589B7995EBDDF3</t>
+  </si>
+  <si>
+    <t>AF06EE26C9CD5C3752798F278F3D198746D8E1399FA877C5ACF2C2969B409C97</t>
+  </si>
+  <si>
+    <t>9BB4A8BADA6E32883B6C424197BED86876F83E399D110BA116BC52E15AF94573</t>
+  </si>
+  <si>
+    <t>47EE57416BD43C90B5696EB77AC1D739F782332D3915047C3675138ACD654862</t>
+  </si>
+  <si>
+    <t>3A0E0506CF1D4411F25CB925C03989131C3C8130BC241737B03CFF1C25823699</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
   <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
+  </si>
+  <si>
+    <t>40712DBA2C08AC67030D1429FC471FD6D493F97EA4556C8F77B1A6415C80122D</t>
+  </si>
+  <si>
+    <t>4DEDA18468C99EE9EEC82FF9084EC397CBDF1B6B7501B69B246417868F9C386B</t>
+  </si>
+  <si>
+    <t>BED17C8915A0E299C33A1E99E0D3A1DC02374158D1FE32DF63B266138EB3A2B0</t>
+  </si>
+  <si>
+    <t>E3790FD6C5AF6E3F5112D599583F8AD8291D04501BE1F8005B516434780F91B8</t>
+  </si>
+  <si>
+    <t>C6CC19E12E661B6519CDCC50EC57EADF32D9178726CAC9E97ADFC924DDB60B17</t>
+  </si>
+  <si>
+    <t>7A9268F1C081063C2DA5AE7BBC6E0C729FAEEF6DF080FB1CF77492E246BA17C3</t>
+  </si>
+  <si>
+    <t>B2C61BBBF120B457D3D342B9F0171FB947280D75372E569A99A15C89C875EBE2</t>
+  </si>
+  <si>
+    <t>777193FE1E1B7B24FF95DAD749B7D43A52227EAE30A508C7FC5C765152AAC57F</t>
   </si>
 </sst>
 </file>
@@ -165,12 +310,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,18 +331,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -207,17 +349,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,44 +361,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,10 +379,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,9 +403,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,6 +466,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -323,7 +480,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,25 +507,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,157 +579,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +719,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -570,9 +736,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,21 +775,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -618,26 +786,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,163 +804,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1175,62 +1334,62 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.5769230769231" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.8461538461538" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6923076923077" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1538461538462" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5384615384615" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.3076923076923" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.2307692307692" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6923076923077" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5769230769231" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53.8461538461538" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.6923076923077" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.1538461538462" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.5384615384615" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.3076923076923" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.2307692307692" style="3" customWidth="1"/>
+    <col min="8" max="8" width="25.6923076923077" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1248,29 +1407,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="94" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.4615384615385" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1287,29 +1446,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="98.7692307692308" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.4615384615385" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
+      <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1326,29 +1485,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="102.538461538462" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.4615384615385" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1365,29 +1524,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="100.153846153846" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.4615384615385" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1401,42 +1560,56 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="95" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.0769230769231" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1450,42 +1623,56 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="85.1538461538462" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.0769230769231" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
+      <c r="A2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1499,42 +1686,49 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="95.6153846153846" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.0769230769231" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1548,42 +1742,50 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="92.9230769230769" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.0769230769231" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
+      <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1597,43 +1799,61 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="95" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.0769230769231" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1646,42 +1866,56 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="98" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.0769230769231" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
+      <c r="A2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1697,29 +1931,29 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="96.5384615384615" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.8653846153846" style="1" customWidth="1"/>
+    <col min="1" max="1" width="96.5384615384615" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.8653846153846" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1734,43 +1968,98 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="98.0769230769231" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.3076923076923" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="7:8">
+      <c r="G9" s="2"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="5:8">
+      <c r="E10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="7:8">
+      <c r="G11" s="2"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="7:8">
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="7:8">
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="7:8">
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1783,42 +2072,72 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="95.4615384615385" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.3076923076923" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1835,27 +2154,27 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.4615384615385" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>38</v>
+      <c r="A2" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
+      <c r="A3" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1872,27 +2191,27 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="95" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>38</v>
+      <c r="A2" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
+      <c r="A3" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1909,27 +2228,27 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="96" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>38</v>
+      <c r="A2" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
+      <c r="A3" s="2" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1946,31 +2265,66 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="98" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>38</v>
+      <c r="A2" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
+      <c r="A3" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="98" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1988,41 +2342,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="96.9230769230769" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.2307692307692" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3846153846154" style="1" customWidth="1"/>
+    <col min="1" max="1" width="96.9230769230769" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.2307692307692" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.3846153846154" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2045,37 +2399,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="96.6153846153846" style="1" customWidth="1"/>
-    <col min="2" max="2" width="81.4615384615385" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3846153846154" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="96.6153846153846" style="3" customWidth="1"/>
+    <col min="2" max="2" width="81.4615384615385" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.3846153846154" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.4326923076923" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2098,37 +2452,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="96.6153846153846" style="1" customWidth="1"/>
-    <col min="2" max="2" width="98.8461538461538" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3846153846154" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="96.6153846153846" style="3" customWidth="1"/>
+    <col min="2" max="2" width="98.8461538461538" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.3846153846154" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.4326923076923" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2151,37 +2505,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="95.3846153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="81.4615384615385" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3846153846154" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="95.3846153846154" style="3" customWidth="1"/>
+    <col min="2" max="2" width="81.4615384615385" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.3846153846154" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.4326923076923" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2204,37 +2558,37 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="95.4615384615385" style="1" customWidth="1"/>
-    <col min="2" max="2" width="98.8461538461538" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.3846153846154" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="95.4615384615385" style="3" customWidth="1"/>
+    <col min="2" max="2" width="98.8461538461538" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.3846153846154" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.4326923076923" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2252,28 +2606,28 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="100.461538461538" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.4615384615385" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2291,29 +2645,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0096153846154" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4326923076923" style="1" customWidth="1"/>
+    <col min="1" max="1" width="96" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.4615384615385" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
+      <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/wetezos/evidence.xlsx
+++ b/wetezos/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28840" windowHeight="14900" firstSheet="14" activeTab="25"/>
+    <workbookView windowWidth="28840" windowHeight="14900" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
   <si>
     <t>TeamName</t>
   </si>
@@ -209,10 +209,28 @@
     <t>1B866E686BF01A9F6001C888097E16BADF87E393786F65C6FA80327373F78206</t>
   </si>
   <si>
-    <t>9A4B48425D1739A860E4C38B65E5A14E590B826F55D41C2BFE17B5851AEDBC4F</t>
-  </si>
-  <si>
-    <t>94B45E8F19778416D277224F3914987021459F30DEAF461430E82ECE0350E5F4</t>
+    <t>4C89CAE7A9E580E102138FD2FB306C9BD3FD6F0E70CCE67FDAE9521876910C29</t>
+  </si>
+  <si>
+    <t>CFAC93E401B4673244A8592EBEBA217E2725512754ACEFFD2985ECDA8C7D924A</t>
+  </si>
+  <si>
+    <t>2CD26A30766C37E9C2C0F883F7F218861F135087EFCC8CDC70F8F8A0ADD1C4F1</t>
+  </si>
+  <si>
+    <t>27515F048768A6BE4EEF394EE87EE25E8335633CDFA1312B513D2862D669E69A</t>
+  </si>
+  <si>
+    <t>66BDA2C704E0B80987594AE011DD86C6ECDFB3007FA9818BE5C64BC8D3C83E84</t>
+  </si>
+  <si>
+    <t>933BF6906CDAB12BC5ECFB0075CC04A598A80B3992AF7F985C22D49FB59B76B3</t>
+  </si>
+  <si>
+    <t>2D0D18A39DB9C0253AE4B1548A7DCCA6C0D180B4D855408EFC3BAAF0B0A1360C</t>
+  </si>
+  <si>
+    <t>557DCC98EAA45AEB69D0331AB5FADDE5FAEAB3A56290544CD6ED636962DFF9A5</t>
   </si>
   <si>
     <t>82199F282E69BB718F669B5F74CEB7020BEAD7AE05C40034C16270FFF2E00156</t>
@@ -275,10 +293,10 @@
     <t>3A0E0506CF1D4411F25CB925C03989131C3C8130BC241737B03CFF1C25823699</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
+    <t>AAB879A15B90EF2A6F0DA041E42B725505DD144048E2EFCFA690C9D32B4A067F</t>
+  </si>
+  <si>
+    <t>E30E2E9B3292E361F4D226D6CEDC438B9131951E5DA64CF89FCEAA8EB511E0E7</t>
   </si>
   <si>
     <t>40712DBA2C08AC67030D1429FC471FD6D493F97EA4556C8F77B1A6415C80122D</t>
@@ -312,8 +330,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -343,6 +361,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -356,18 +381,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,33 +427,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,16 +442,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,22 +460,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,6 +473,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -479,12 +488,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -519,25 +537,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,13 +615,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,127 +699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,18 +747,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,21 +767,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -786,6 +778,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,157 +808,174 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1688,8 +1706,8 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1715,18 +1733,25 @@
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1745,7 +1770,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1764,26 +1789,32 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
@@ -1821,7 +1852,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
@@ -1829,7 +1860,7 @@
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>48</v>
@@ -1837,7 +1868,7 @@
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -1845,7 +1876,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>48</v>
@@ -1888,7 +1919,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
@@ -1896,7 +1927,7 @@
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -1904,7 +1935,7 @@
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>50</v>
@@ -1912,7 +1943,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>30</v>
@@ -1990,7 +2021,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
@@ -1998,7 +2029,7 @@
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>48</v>
@@ -2006,7 +2037,7 @@
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>27</v>
@@ -2014,7 +2045,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>50</v>
@@ -2022,7 +2053,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>27</v>
@@ -2030,7 +2061,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>48</v>
@@ -2094,7 +2125,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>46</v>
@@ -2102,7 +2133,7 @@
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>50</v>
@@ -2110,7 +2141,7 @@
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>48</v>
@@ -2118,7 +2149,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>30</v>
@@ -2126,7 +2157,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>48</v>
@@ -2134,7 +2165,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>50</v>
@@ -2154,12 +2185,12 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="45.4615384615385" style="3" customWidth="1"/>
+    <col min="1" max="1" width="95.8461538461538" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
@@ -2169,12 +2200,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2206,12 +2237,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2243,12 +2274,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2280,12 +2311,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2299,8 +2330,8 @@
   <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -2315,12 +2346,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
